--- a/QA/bugReport_UserInteract2.xlsx
+++ b/QA/bugReport_UserInteract2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zork/Desktop/swift/StoreRoom/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B3BDB-94D6-5A46-80ED-0F90A9B45955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661D98E-2800-B443-B6F3-618966FC1346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7A968430-7FC1-B349-A0D4-34F5C039606C}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>45018</v>
+        <v>45017</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
